--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H2">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I2">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J2">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>1986.208859162909</v>
+        <v>1378.805572486819</v>
       </c>
       <c r="R2">
-        <v>17875.87973246619</v>
+        <v>12409.25015238137</v>
       </c>
       <c r="S2">
-        <v>0.05178838383034823</v>
+        <v>0.03950204985276091</v>
       </c>
       <c r="T2">
-        <v>0.05498135557390531</v>
+        <v>0.040628296498806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H3">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I3">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J3">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
-        <v>9.026821063831999</v>
+        <v>8.481944827682666</v>
       </c>
       <c r="R3">
-        <v>81.241389574488</v>
+        <v>76.33750344914399</v>
       </c>
       <c r="S3">
-        <v>0.0002353652144209174</v>
+        <v>0.0002430032298369546</v>
       </c>
       <c r="T3">
-        <v>0.0002498764701018072</v>
+        <v>0.0002499315177005492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H4">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I4">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J4">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>431.278460968784</v>
+        <v>488.2021194458364</v>
       </c>
       <c r="R4">
-        <v>3881.506148719056</v>
+        <v>4393.819075012527</v>
       </c>
       <c r="S4">
-        <v>0.01124514895368378</v>
+        <v>0.01398673231773389</v>
       </c>
       <c r="T4">
-        <v>0.01193845969647167</v>
+        <v>0.01438550935387996</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H5">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I5">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J5">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>85.38386348263199</v>
+        <v>22.128809645488</v>
       </c>
       <c r="R5">
-        <v>512.3031808957919</v>
+        <v>132.772857872928</v>
       </c>
       <c r="S5">
-        <v>0.00222629774031932</v>
+        <v>0.000633978683609273</v>
       </c>
       <c r="T5">
-        <v>0.001575705574887994</v>
+        <v>0.0004347027395220941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H6">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I6">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J6">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>415.9818490500053</v>
+        <v>634.5150928613405</v>
       </c>
       <c r="R6">
-        <v>3743.836641450048</v>
+        <v>5710.635835752064</v>
       </c>
       <c r="S6">
-        <v>0.01084630529446888</v>
+        <v>0.0181785215629287</v>
       </c>
       <c r="T6">
-        <v>0.0115150256476794</v>
+        <v>0.01869681109515852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J7">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N7">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O7">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P7">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q7">
-        <v>8313.12987003693</v>
+        <v>6141.607684243422</v>
       </c>
       <c r="R7">
-        <v>74818.16883033236</v>
+        <v>55274.4691581908</v>
       </c>
       <c r="S7">
-        <v>0.2167564395631838</v>
+        <v>0.1759538094131124</v>
       </c>
       <c r="T7">
-        <v>0.2301203859845763</v>
+        <v>0.1809704449661792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J8">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P8">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q8">
         <v>37.78109007571667</v>
@@ -948,10 +948,10 @@
         <v>340.02981068145</v>
       </c>
       <c r="S8">
-        <v>0.0009851036487647106</v>
+        <v>0.001082408233215113</v>
       </c>
       <c r="T8">
-        <v>0.001045839433169272</v>
+        <v>0.001113268875810979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J9">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N9">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O9">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P9">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q9">
-        <v>1805.084012007767</v>
+        <v>2174.596584233878</v>
       </c>
       <c r="R9">
-        <v>16245.7561080699</v>
+        <v>19571.3692581049</v>
       </c>
       <c r="S9">
-        <v>0.04706573693326563</v>
+        <v>0.06230104112874944</v>
       </c>
       <c r="T9">
-        <v>0.04996753762683243</v>
+        <v>0.06407731195210944</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J10">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N10">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O10">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P10">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q10">
-        <v>357.36782799155</v>
+        <v>98.56826087290001</v>
       </c>
       <c r="R10">
-        <v>2144.2069679493</v>
+        <v>591.4095652374001</v>
       </c>
       <c r="S10">
-        <v>0.009318004075585619</v>
+        <v>0.002823928502028491</v>
       </c>
       <c r="T10">
-        <v>0.006594998819260984</v>
+        <v>0.001936294528165669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J11">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N11">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O11">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P11">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q11">
-        <v>1741.061177316578</v>
+        <v>2826.317827434578</v>
       </c>
       <c r="R11">
-        <v>15669.5505958492</v>
+        <v>25436.8604469112</v>
       </c>
       <c r="S11">
-        <v>0.04539640637842578</v>
+        <v>0.0809725097917204</v>
       </c>
       <c r="T11">
-        <v>0.04819528582019757</v>
+        <v>0.08328112460828554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H12">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I12">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J12">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N12">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O12">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P12">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q12">
-        <v>5313.515460929812</v>
+        <v>4706.421268617301</v>
       </c>
       <c r="R12">
-        <v>47821.63914836831</v>
+        <v>42357.79141755571</v>
       </c>
       <c r="S12">
-        <v>0.1385445326706966</v>
+        <v>0.1348364782466762</v>
       </c>
       <c r="T12">
-        <v>0.1470863859845787</v>
+        <v>0.1386808137167565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H13">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I13">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J13">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P13">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q13">
-        <v>24.148594980053</v>
+        <v>28.952309399392</v>
       </c>
       <c r="R13">
-        <v>217.337354820477</v>
+        <v>260.570784594528</v>
       </c>
       <c r="S13">
-        <v>0.0006296501498425898</v>
+        <v>0.0008294683398940747</v>
       </c>
       <c r="T13">
-        <v>0.000668470730599847</v>
+        <v>0.0008531173894823456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H14">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I14">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J14">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N14">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O14">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P14">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q14">
-        <v>1153.758206118086</v>
+        <v>1666.431354929771</v>
       </c>
       <c r="R14">
-        <v>10383.82385506277</v>
+        <v>14997.88219436794</v>
       </c>
       <c r="S14">
-        <v>0.03008307638454484</v>
+        <v>0.04774237628000955</v>
       </c>
       <c r="T14">
-        <v>0.03193782460703779</v>
+        <v>0.04910356364522234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H15">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I15">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J15">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N15">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O15">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P15">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q15">
-        <v>228.419320876503</v>
+        <v>75.534580395456</v>
       </c>
       <c r="R15">
-        <v>1370.515925259018</v>
+        <v>453.207482372736</v>
       </c>
       <c r="S15">
-        <v>0.005955802386666101</v>
+        <v>0.00216402574802997</v>
       </c>
       <c r="T15">
-        <v>0.004215335107089026</v>
+        <v>0.001483816325983516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H16">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I16">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J16">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N16">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O16">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P16">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q16">
-        <v>1112.836636588621</v>
+        <v>2165.856729832619</v>
       </c>
       <c r="R16">
-        <v>10015.52972929759</v>
+        <v>19492.71056849357</v>
       </c>
       <c r="S16">
-        <v>0.02901608791555504</v>
+        <v>0.06205064892614053</v>
       </c>
       <c r="T16">
-        <v>0.03080505180997655</v>
+        <v>0.06381978079394164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H17">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I17">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J17">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N17">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O17">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P17">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q17">
-        <v>3811.102613819957</v>
+        <v>1418.646527371845</v>
       </c>
       <c r="R17">
-        <v>22866.61568291974</v>
+        <v>8511.879164231072</v>
       </c>
       <c r="S17">
-        <v>0.0993706397345008</v>
+        <v>0.04064347212248047</v>
       </c>
       <c r="T17">
-        <v>0.07033150515949457</v>
+        <v>0.02786817464389856</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H18">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I18">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J18">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.689053</v>
       </c>
       <c r="O18">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P18">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q18">
-        <v>17.3205054403765</v>
+        <v>8.727032886478</v>
       </c>
       <c r="R18">
-        <v>103.923032642259</v>
+        <v>52.36219731886799</v>
       </c>
       <c r="S18">
-        <v>0.0004516146324409686</v>
+        <v>0.0002500248729968296</v>
       </c>
       <c r="T18">
-        <v>0.0003196390496880078</v>
+        <v>0.000171435570391149</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H19">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I19">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J19">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N19">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O19">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P19">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q19">
-        <v>827.5295230407431</v>
+        <v>502.3088499405026</v>
       </c>
       <c r="R19">
-        <v>4965.177138244459</v>
+        <v>3013.853099643015</v>
       </c>
       <c r="S19">
-        <v>0.02157699396640538</v>
+        <v>0.0143908826797423</v>
       </c>
       <c r="T19">
-        <v>0.01527153761442217</v>
+        <v>0.009867454989828202</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H20">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I20">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J20">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N20">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O20">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P20">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q20">
-        <v>163.8330550161015</v>
+        <v>22.768227504204</v>
       </c>
       <c r="R20">
-        <v>655.332220064406</v>
+        <v>91.072910016816</v>
       </c>
       <c r="S20">
-        <v>0.004271780934885312</v>
+        <v>0.0006522976668189135</v>
       </c>
       <c r="T20">
-        <v>0.002015624089535479</v>
+        <v>0.0002981757274400832</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H21">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I21">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J21">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N21">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O21">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P21">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q21">
-        <v>798.1786532179108</v>
+        <v>652.8495757594346</v>
       </c>
       <c r="R21">
-        <v>4789.071919307464</v>
+        <v>3917.097454556608</v>
       </c>
       <c r="S21">
-        <v>0.02081169977031562</v>
+        <v>0.01870379479355457</v>
       </c>
       <c r="T21">
-        <v>0.01472988574577539</v>
+        <v>0.01282470696006589</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H22">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I22">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J22">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N22">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O22">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P22">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q22">
-        <v>6593.462715979157</v>
+        <v>5360.91704179841</v>
       </c>
       <c r="R22">
-        <v>59341.16444381241</v>
+        <v>48248.25337618569</v>
       </c>
       <c r="S22">
-        <v>0.1719178606675482</v>
+        <v>0.1535874357250327</v>
       </c>
       <c r="T22">
-        <v>0.1825173200583352</v>
+        <v>0.1579663815013845</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H23">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I23">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J23">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.689053</v>
       </c>
       <c r="O23">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P23">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q23">
-        <v>29.965634204892</v>
+        <v>32.97854569321633</v>
       </c>
       <c r="R23">
-        <v>269.690707844028</v>
+        <v>296.806911238947</v>
       </c>
       <c r="S23">
-        <v>0.0007813235545514569</v>
+        <v>0.0009448178786334567</v>
       </c>
       <c r="T23">
-        <v>0.000829495438818609</v>
+        <v>0.0009717556697329229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H24">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I24">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J24">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N24">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O24">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P24">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q24">
-        <v>1431.681486810504</v>
+        <v>1898.172675106668</v>
       </c>
       <c r="R24">
-        <v>12885.13338129454</v>
+        <v>17083.55407596002</v>
       </c>
       <c r="S24">
-        <v>0.03732964437234174</v>
+        <v>0.05438164244286802</v>
       </c>
       <c r="T24">
-        <v>0.03963117399852936</v>
+        <v>0.05593212254797637</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H25">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I25">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J25">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N25">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O25">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P25">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q25">
-        <v>283.442155552692</v>
+        <v>86.03875347649401</v>
       </c>
       <c r="R25">
-        <v>1700.652933316152</v>
+        <v>516.2325208589641</v>
       </c>
       <c r="S25">
-        <v>0.00739046705876167</v>
+        <v>0.002464964746964252</v>
       </c>
       <c r="T25">
-        <v>0.005230746963722184</v>
+        <v>0.001690162391944298</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H26">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I26">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J26">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N26">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O26">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P26">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q26">
-        <v>1380.902516662432</v>
+        <v>2467.050353200671</v>
       </c>
       <c r="R26">
-        <v>12428.12264996189</v>
+        <v>22203.45317880603</v>
       </c>
       <c r="S26">
-        <v>0.03600563416847704</v>
+        <v>0.07067968681446267</v>
       </c>
       <c r="T26">
-        <v>0.03822553299531456</v>
+        <v>0.0726948419903337</v>
       </c>
     </row>
   </sheetData>
